--- a/doc/crypto-janeczek-mair-working-hours.xlsx
+++ b/doc/crypto-janeczek-mair-working-hours.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Desktop\git\Cryptography\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Desktop\projects\crypto\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Janeczek" sheetId="8" r:id="rId1"/>
@@ -243,13 +243,13 @@
     <xf numFmtId="46" fontId="5" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -652,14 +652,14 @@
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -692,7 +692,7 @@
     </row>
     <row r="5" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="21">
+      <c r="B5" s="19">
         <v>42030</v>
       </c>
       <c r="C5" s="13" t="s">
@@ -701,11 +701,11 @@
       <c r="D5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="18">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F5" s="18">
-        <v>4.1666666666666664E-2</v>
+      <c r="F5" s="17">
+        <v>2.013888888888889E-2</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>12</v>
@@ -713,18 +713,18 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="14">
         <f>SUM(E5:E5)</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F6" s="14">
         <f>SUM(F5:F5)</f>
-        <v>4.1666666666666664E-2</v>
+        <v>2.013888888888889E-2</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -788,14 +788,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
@@ -805,7 +805,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
@@ -826,7 +826,7 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="21">
+      <c r="B5" s="19">
         <v>42030</v>
       </c>
       <c r="C5" s="13" t="s">
@@ -846,11 +846,11 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="14">
         <f>SUM(E5:E5)</f>
         <v>4.1666666666666664E-2</v>
@@ -874,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -885,12 +885,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
@@ -917,7 +917,7 @@
       </c>
       <c r="D6" s="16">
         <f>SumActJaneczek</f>
-        <v>4.1666666666666664E-2</v>
+        <v>2.013888888888889E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -943,7 +943,7 @@
       </c>
       <c r="D8" s="16">
         <f>SUM(SumActJaneczek+SumActMair)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>6.1805555555555558E-2</v>
       </c>
     </row>
   </sheetData>

--- a/doc/crypto-janeczek-mair-working-hours.xlsx
+++ b/doc/crypto-janeczek-mair-working-hours.xlsx
@@ -17,17 +17,17 @@
     <sheet name="SUM" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="SumActJaneczek">Janeczek!$F$6</definedName>
-    <definedName name="SumActMair">Mair!$F$6</definedName>
-    <definedName name="SumEstJaneczek">Janeczek!$E$6</definedName>
-    <definedName name="SumEstMair">Mair!$E$6</definedName>
+    <definedName name="SumActJaneczek">Janeczek!$F$7</definedName>
+    <definedName name="SumActMair">Mair!$F$7</definedName>
+    <definedName name="SumEstJaneczek">Janeczek!$E$7</definedName>
+    <definedName name="SumEstMair">Mair!$E$7</definedName>
   </definedNames>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>PHASE</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>Mair</t>
+  </si>
+  <si>
+    <t>UML-Design Second Draft</t>
+  </si>
+  <si>
+    <t>Second Design Draft</t>
+  </si>
+  <si>
+    <t>First Design Draft</t>
   </si>
 </sst>
 </file>
@@ -626,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -711,30 +720,43 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="14">
-        <f>SUM(E5:E5)</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F6" s="14">
-        <f>SUM(F5:F5)</f>
-        <v>2.013888888888889E-2</v>
-      </c>
-      <c r="G6" s="4"/>
+      <c r="B6" s="19">
+        <v>42030</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="18">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F6" s="17">
+        <v>3.8194444444444441E-2</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="B7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="14">
+        <f>SUM(E5:E6)</f>
+        <v>0.125</v>
+      </c>
+      <c r="F7" s="14">
+        <f>SUM(F5:F6)</f>
+        <v>5.8333333333333334E-2</v>
+      </c>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -760,9 +782,17 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -772,10 +802,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G6"/>
+  <dimension ref="B2:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -827,7 +857,7 @@
     </row>
     <row r="5" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="19">
-        <v>42030</v>
+        <v>42027</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>13</v>
@@ -839,32 +869,52 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F5" s="18">
-        <v>4.1666666666666664E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="19">
+        <v>42030</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="18">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F6" s="17">
+        <v>3.8194444444444441E-2</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="14">
-        <f>SUM(E5:E5)</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F6" s="14">
-        <f>SUM(F5:F5)</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="G6" s="4"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="14">
+        <f>SUM(E5:E6)</f>
+        <v>0.125</v>
+      </c>
+      <c r="F7" s="14">
+        <f>SUM(F5:F6)</f>
+        <v>6.9444444444444448E-2</v>
+      </c>
+      <c r="G7" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -875,7 +925,7 @@
   <dimension ref="A3:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -913,11 +963,11 @@
       </c>
       <c r="C6" s="15">
         <f>SumEstJaneczek</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0.125</v>
       </c>
       <c r="D6" s="16">
         <f>SumActJaneczek</f>
-        <v>2.013888888888889E-2</v>
+        <v>5.8333333333333334E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -926,11 +976,11 @@
       </c>
       <c r="C7" s="15">
         <f>SumEstMair</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0.125</v>
       </c>
       <c r="D7" s="16">
         <f>SumActMair</f>
-        <v>4.1666666666666664E-2</v>
+        <v>6.9444444444444448E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -939,11 +989,11 @@
       </c>
       <c r="C8" s="15">
         <f>SUM(SumEstJaneczek+SumEstMair)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.25</v>
       </c>
       <c r="D8" s="16">
         <f>SUM(SumActJaneczek+SumActMair)</f>
-        <v>6.1805555555555558E-2</v>
+        <v>0.12777777777777777</v>
       </c>
     </row>
   </sheetData>

--- a/doc/crypto-janeczek-mair-working-hours.xlsx
+++ b/doc/crypto-janeczek-mair-working-hours.xlsx
@@ -17,17 +17,17 @@
     <sheet name="SUM" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="SumActJaneczek">Janeczek!$F$7</definedName>
-    <definedName name="SumActMair">Mair!$F$7</definedName>
-    <definedName name="SumEstJaneczek">Janeczek!$E$7</definedName>
-    <definedName name="SumEstMair">Mair!$E$7</definedName>
+    <definedName name="SumActJaneczek">Janeczek!$F$8</definedName>
+    <definedName name="SumActMair">Mair!$F$8</definedName>
+    <definedName name="SumEstJaneczek">Janeczek!$E$8</definedName>
+    <definedName name="SumEstMair">Mair!$E$8</definedName>
   </definedNames>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>PHASE</t>
   </si>
@@ -84,6 +84,21 @@
   </si>
   <si>
     <t>First Design Draft</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Implementing the functionality of the program</t>
+  </si>
+  <si>
+    <t>STILL ONGOING....</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Requirementsanalyse, Designüberlegung</t>
   </si>
 </sst>
 </file>
@@ -635,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -741,30 +756,43 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="14">
-        <f>SUM(E5:E6)</f>
-        <v>0.125</v>
-      </c>
-      <c r="F7" s="14">
-        <f>SUM(F5:F6)</f>
-        <v>5.8333333333333334E-2</v>
-      </c>
-      <c r="G7" s="4"/>
+      <c r="B7" s="19">
+        <v>42030</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F7" s="17">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="B8" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="14">
+        <f>SUM(E5:E7)</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="F8" s="14">
+        <f>SUM(F5:F7)</f>
+        <v>7.9166666666666663E-2</v>
+      </c>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -790,9 +818,17 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -802,15 +838,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G7"/>
+  <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
     <col min="4" max="4" width="57.109375" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
@@ -895,26 +932,44 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="20" t="s">
+    <row r="7" spans="2:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="19">
+        <v>42030</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="18">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="F7" s="17">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="14">
-        <f>SUM(E5:E6)</f>
-        <v>0.125</v>
-      </c>
-      <c r="F7" s="14">
-        <f>SUM(F5:F6)</f>
-        <v>6.9444444444444448E-2</v>
-      </c>
-      <c r="G7" s="4"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="14">
+        <f>SUM(E5:E7)</f>
+        <v>0.15972222222222221</v>
+      </c>
+      <c r="F8" s="14">
+        <f>SUM(F5:F7)</f>
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="G8" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -925,7 +980,7 @@
   <dimension ref="A3:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -963,11 +1018,11 @@
       </c>
       <c r="C6" s="15">
         <f>SumEstJaneczek</f>
-        <v>0.125</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="D6" s="16">
         <f>SumActJaneczek</f>
-        <v>5.8333333333333334E-2</v>
+        <v>7.9166666666666663E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -976,11 +1031,11 @@
       </c>
       <c r="C7" s="15">
         <f>SumEstMair</f>
-        <v>0.125</v>
+        <v>0.15972222222222221</v>
       </c>
       <c r="D7" s="16">
         <f>SumActMair</f>
-        <v>6.9444444444444448E-2</v>
+        <v>9.0277777777777776E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -989,11 +1044,11 @@
       </c>
       <c r="C8" s="15">
         <f>SUM(SumEstJaneczek+SumEstMair)</f>
-        <v>0.25</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="D8" s="16">
         <f>SUM(SumActJaneczek+SumActMair)</f>
-        <v>0.12777777777777777</v>
+        <v>0.16944444444444445</v>
       </c>
     </row>
   </sheetData>

--- a/doc/crypto-janeczek-mair-working-hours.xlsx
+++ b/doc/crypto-janeczek-mair-working-hours.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Desktop\projects\crypto\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Janeczek" sheetId="8" r:id="rId1"/>
@@ -18,16 +13,16 @@
   </sheets>
   <definedNames>
     <definedName name="SumActJaneczek">Janeczek!$F$8</definedName>
-    <definedName name="SumActMair">Mair!$F$8</definedName>
+    <definedName name="SumActMair">Mair!$F$9</definedName>
     <definedName name="SumEstJaneczek">Janeczek!$E$8</definedName>
-    <definedName name="SumEstMair">Mair!$E$8</definedName>
+    <definedName name="SumEstMair">Mair!$E$9</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>PHASE</t>
   </si>
@@ -99,13 +94,16 @@
   </si>
   <si>
     <t>Requirementsanalyse, Designüberlegung</t>
+  </si>
+  <si>
+    <t>Erstellung erster Verschlüsselungsmethoden</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -211,7 +209,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -276,11 +274,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -364,9 +365,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -404,9 +405,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -438,10 +439,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -473,10 +473,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -649,24 +648,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="54.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="54.7109375" style="11" customWidth="1"/>
     <col min="5" max="5" width="12" style="11" customWidth="1"/>
     <col min="6" max="6" width="9" style="11" customWidth="1"/>
-    <col min="7" max="7" width="59.33203125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="59.28515625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -674,7 +673,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="21" t="s">
         <v>9</v>
@@ -685,7 +684,7 @@
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -693,7 +692,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" s="11" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="11" customFormat="1" ht="15.6" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>5</v>
@@ -714,7 +713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="28.15" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="19">
         <v>42030</v>
@@ -735,7 +734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="28.15" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="19">
         <v>42030</v>
@@ -756,7 +755,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="28.15" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="19">
         <v>42030</v>
@@ -777,7 +776,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="1"/>
       <c r="B8" s="20" t="s">
         <v>6</v>
@@ -794,7 +793,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -802,7 +801,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -810,7 +809,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -818,7 +817,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -837,24 +836,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="57.109375" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="57.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="41.33203125" customWidth="1"/>
+    <col min="7" max="7" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="18.75">
       <c r="B2" s="21" t="s">
         <v>9</v>
       </c>
@@ -864,7 +863,7 @@
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -872,7 +871,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7">
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
@@ -892,7 +891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="23.45" customHeight="1">
       <c r="B5" s="19">
         <v>42027</v>
       </c>
@@ -902,17 +901,17 @@
       <c r="D5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="18">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="17">
         <v>3.125E-2</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="23.45" customHeight="1">
       <c r="B6" s="19">
         <v>42030</v>
       </c>
@@ -932,7 +931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="40.9" customHeight="1">
       <c r="B7" s="19">
         <v>42030</v>
       </c>
@@ -950,46 +949,64 @@
       </c>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="20" t="s">
+    <row r="8" spans="2:7" ht="40.9" customHeight="1">
+      <c r="B8" s="19">
+        <v>42031</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="18">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="14">
-        <f>SUM(E5:E7)</f>
-        <v>0.15972222222222221</v>
-      </c>
-      <c r="F8" s="14">
-        <f>SUM(F5:F7)</f>
-        <v>9.0277777777777776E-2</v>
-      </c>
-      <c r="G8" s="4"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="14">
+        <f>SUM(E5:E8)</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="F9" s="14">
+        <f>SUM(F4:F8)</f>
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="G9" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.5546875"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="18.75">
       <c r="A3" s="21" t="s">
         <v>9</v>
       </c>
@@ -997,11 +1014,11 @@
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
     </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="18.75">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
@@ -1012,7 +1029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
@@ -1025,30 +1042,30 @@
         <v>7.9166666666666663E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="B7" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="15">
         <f>SumEstMair</f>
-        <v>0.15972222222222221</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="D7" s="16">
         <f>SumActMair</f>
-        <v>9.0277777777777776E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.19444444444444445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="15">
         <f>SUM(SumEstJaneczek+SumEstMair)</f>
-        <v>0.49305555555555558</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="D8" s="16">
         <f>SUM(SumActJaneczek+SumActMair)</f>
-        <v>0.16944444444444445</v>
+        <v>0.27361111111111114</v>
       </c>
     </row>
   </sheetData>

--- a/doc/crypto-janeczek-mair-working-hours.xlsx
+++ b/doc/crypto-janeczek-mair-working-hours.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Janeczek" sheetId="8" r:id="rId1"/>
@@ -12,17 +12,17 @@
     <sheet name="SUM" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="SumActJaneczek">Janeczek!$F$8</definedName>
-    <definedName name="SumActMair">Mair!$F$9</definedName>
-    <definedName name="SumEstJaneczek">Janeczek!$E$8</definedName>
-    <definedName name="SumEstMair">Mair!$E$9</definedName>
+    <definedName name="SumActJaneczek">Janeczek!$F$9</definedName>
+    <definedName name="SumActMair">Mair!$F$10</definedName>
+    <definedName name="SumEstJaneczek">Janeczek!$E$9</definedName>
+    <definedName name="SumEstMair">Mair!$E$10</definedName>
   </definedNames>
-  <calcPr calcId="125725" iterateDelta="1E-4"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>PHASE</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>Erstellung erster Verschlüsselungsmethoden</t>
+  </si>
+  <si>
+    <t>Learning from examples</t>
+  </si>
+  <si>
+    <t>trying to get back into the code</t>
   </si>
 </sst>
 </file>
@@ -180,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -203,13 +209,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF31859C"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF31859C"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF31859C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF31859C"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF31859C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF31859C"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF31859C"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF31859C"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -268,14 +311,23 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -649,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -675,14 +727,14 @@
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -776,30 +828,43 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="28.15" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="14">
-        <f>SUM(E5:E7)</f>
-        <v>0.33333333333333337</v>
-      </c>
-      <c r="F8" s="14">
-        <f>SUM(F5:F7)</f>
-        <v>7.9166666666666663E-2</v>
-      </c>
-      <c r="G8" s="4"/>
+      <c r="B8" s="19">
+        <v>42047</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="18">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F8" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="B9" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="14">
+        <f>SUM(E5:E8)</f>
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F9" s="14">
+        <f>SUM(F5:F8)</f>
+        <v>0.12083333333333332</v>
+      </c>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1"/>
@@ -825,9 +890,17 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -837,10 +910,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G9"/>
+  <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -854,14 +927,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="18.75">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="2"/>
@@ -956,7 +1029,7 @@
       <c r="C8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="18">
@@ -968,25 +1041,45 @@
       <c r="G8" s="9"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19">
+        <v>42047</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="18">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F9" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="14">
-        <f>SUM(E5:E8)</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="F9" s="14">
-        <f>SUM(F4:F8)</f>
-        <v>0.19444444444444445</v>
-      </c>
-      <c r="G9" s="4"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="14">
+        <f>SUM(E5:E9)</f>
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="F10" s="14">
+        <f>SUM(F4:F9)</f>
+        <v>0.2361111111111111</v>
+      </c>
+      <c r="G10" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -996,7 +1089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -1007,12 +1100,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:4" ht="18.75">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="1:4" ht="18.75">
       <c r="B4" s="5"/>
@@ -1035,11 +1128,11 @@
       </c>
       <c r="C6" s="15">
         <f>SumEstJaneczek</f>
-        <v>0.33333333333333337</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="D6" s="16">
         <f>SumActJaneczek</f>
-        <v>7.9166666666666663E-2</v>
+        <v>0.12083333333333332</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1048,11 +1141,11 @@
       </c>
       <c r="C7" s="15">
         <f>SumEstMair</f>
-        <v>0.22222222222222221</v>
+        <v>0.24305555555555555</v>
       </c>
       <c r="D7" s="16">
         <f>SumActMair</f>
-        <v>0.19444444444444445</v>
+        <v>0.2361111111111111</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1061,11 +1154,11 @@
       </c>
       <c r="C8" s="15">
         <f>SUM(SumEstJaneczek+SumEstMair)</f>
-        <v>0.55555555555555558</v>
+        <v>0.59722222222222221</v>
       </c>
       <c r="D8" s="16">
         <f>SUM(SumActJaneczek+SumActMair)</f>
-        <v>0.27361111111111114</v>
+        <v>0.3569444444444444</v>
       </c>
     </row>
   </sheetData>
